--- a/data/trans_camb/P0901-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-5.042260812450144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.147690761977211</v>
+        <v>8.147690761977216</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.222201489368463</v>
@@ -664,7 +664,7 @@
         <v>-2.969858885022469</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>8.700590400764366</v>
+        <v>8.70059040076436</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.400897925869783</v>
+        <v>-8.31056013396852</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.780486250267463</v>
+        <v>-8.591302419162277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.288951960138405</v>
+        <v>3.031265853119084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.622194407824386</v>
+        <v>-2.559202607994977</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.64256362840278</v>
+        <v>-3.939126187474021</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.946746333143087</v>
+        <v>5.533486555564012</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.104480110307217</v>
+        <v>-4.880692024459126</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.898255449206655</v>
+        <v>-5.632503181910045</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.373242622581452</v>
+        <v>5.451361397741254</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6269488047630735</v>
+        <v>-0.6692746629501357</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.348103822360696</v>
+        <v>-1.388686567507325</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.29232978647351</v>
+        <v>13.80083446470275</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.93545347630466</v>
+        <v>5.565416224070588</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.475523463154878</v>
+        <v>3.958767112853793</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.95821341531248</v>
+        <v>14.19327001376807</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4647351652618546</v>
+        <v>0.7428591584090227</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.3435002847103257</v>
+        <v>-0.5602858995755159</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.16100430853182</v>
+        <v>12.39439746768564</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2843850796451532</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4595322956217823</v>
+        <v>0.4595322956217827</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.05214824374021017</v>
@@ -769,7 +769,7 @@
         <v>-0.1399274311024169</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4099357279206531</v>
+        <v>0.4099357279206529</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4096465590846656</v>
+        <v>-0.4137835578087798</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4280788243189533</v>
+        <v>-0.4257132654291916</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1403331682433756</v>
+        <v>0.144749838886273</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.102065795462875</v>
+        <v>-0.09989945122229762</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1467722938080555</v>
+        <v>-0.1536547645383131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1919681313078353</v>
+        <v>0.2191451618588915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2191771002372175</v>
+        <v>-0.2134510953816591</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.25651488416799</v>
+        <v>-0.2425230740827301</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.249357345723863</v>
+        <v>0.2397397371731626</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.03000320419481799</v>
+        <v>-0.03883823381979372</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.07880984225614812</v>
+        <v>-0.09202204739589005</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8426847593102292</v>
+        <v>0.904015928537759</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2298424288465953</v>
+        <v>0.259260325448398</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.167102035750262</v>
+        <v>0.189087114884831</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6468759146639963</v>
+        <v>0.6503552589771997</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02109892892465307</v>
+        <v>0.0393026812252335</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01624950128565067</v>
+        <v>-0.02600529992919121</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6209203808171608</v>
+        <v>0.6305277929097166</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.446541752216437</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.458911054223419</v>
+        <v>6.458911054223416</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.819130111112736</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6973441686271531</v>
+        <v>0.9908582118045615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.011450594241482</v>
+        <v>-1.074567177956931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.689604272194542</v>
+        <v>3.642153102771775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.267431886606422</v>
+        <v>3.459001471752579</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0333813195567136</v>
+        <v>-0.1377606098354312</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.207897978685444</v>
+        <v>6.462888924559522</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.376034115980048</v>
+        <v>3.289194830984158</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6177857292569631</v>
+        <v>0.3880608174709343</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.188633935795659</v>
+        <v>6.025423822999429</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.348848674564914</v>
+        <v>6.472300095485912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.119172999484669</v>
+        <v>4.212297995714511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.469949216713511</v>
+        <v>9.120495657797541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.33972552796441</v>
+        <v>10.35189750250098</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.792294531716567</v>
+        <v>7.012174853147096</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.40221967158018</v>
+        <v>12.70129544018968</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.930656316073212</v>
+        <v>7.624957146573165</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.771072416062911</v>
+        <v>4.977221354082625</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.16072645603067</v>
+        <v>10.35275586372625</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1733750626213903</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7741318954507606</v>
+        <v>0.7741318954507602</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4656673677612472</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06895045157910787</v>
+        <v>0.1029707912553736</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1216598815731509</v>
+        <v>-0.1171868354534851</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3736153646328808</v>
+        <v>0.3777962863857472</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1887378834383582</v>
+        <v>0.2088453553308556</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.008807813445993956</v>
+        <v>-0.01414945479599092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3850762192892779</v>
+        <v>0.380912119055688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.258656350550389</v>
+        <v>0.2644342587517156</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04840448257048442</v>
+        <v>0.02533860885752292</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4972148380995617</v>
+        <v>0.4924803442071492</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.864382824944081</v>
+        <v>0.8875156682911298</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5684293079299495</v>
+        <v>0.5667222126762891</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.292043901226379</v>
+        <v>1.278573097890276</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7645580478730483</v>
+        <v>0.7878735585082914</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.522138231464902</v>
+        <v>0.5310316899109138</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9724708079063826</v>
+        <v>0.9804994679440769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7429885987988868</v>
+        <v>0.7189094584196988</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4551575303415439</v>
+        <v>0.4655545054445112</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9847375276739111</v>
+        <v>1.002413193844045</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.681826822428285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.318796117721687</v>
+        <v>3.318796117721688</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.744192270660289</v>
@@ -1083,7 +1083,7 @@
         <v>5.004517163399131</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.573393597916029</v>
+        <v>2.573393597916032</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.488025560827175</v>
@@ -1092,7 +1092,7 @@
         <v>3.384053149242158</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.159565508274022</v>
+        <v>3.159565508274023</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.255600825573836</v>
+        <v>3.318428587235785</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.726365467128994</v>
+        <v>-0.4457883637221415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.204389595550996</v>
+        <v>1.040142945838138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.418673132708489</v>
+        <v>1.032290450808108</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.387464933805474</v>
+        <v>1.234965830860012</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1636842452836339</v>
+        <v>0.001347472705040604</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.323981468558094</v>
+        <v>3.413961196978277</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.218638078164403</v>
+        <v>1.297712008770617</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.310552670299449</v>
+        <v>1.423326256470568</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.51012882837281</v>
+        <v>8.573162085383117</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.10959805091839</v>
+        <v>4.110193090173932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.712014083104663</v>
+        <v>5.670791363202592</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.853172733027912</v>
+        <v>7.952355277925061</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.477307616075947</v>
+        <v>8.543098302178763</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.228791331454005</v>
+        <v>5.491430227978272</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.571241380448352</v>
+        <v>7.668742739139104</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.408911273861829</v>
+        <v>5.877721260738337</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.120317894183073</v>
+        <v>4.932377045359717</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2839569116036472</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5603401511160101</v>
+        <v>0.5603401511160103</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3666148498036756</v>
@@ -1188,7 +1188,7 @@
         <v>0.3867318615111976</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1988629999716303</v>
+        <v>0.1988629999716305</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5952337930217387</v>
@@ -1197,7 +1197,7 @@
         <v>0.3670359712222199</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.342687937755731</v>
+        <v>0.3426879377557311</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4699644584428074</v>
+        <v>0.4926123875224679</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1066272595750774</v>
+        <v>-0.07792522183471091</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.160448794846315</v>
+        <v>0.1438601665066055</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1017019020706613</v>
+        <v>0.06909602070369178</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1005673943891328</v>
+        <v>0.0849459360420759</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01492952198822485</v>
+        <v>-0.001658953575482581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3261007582314052</v>
+        <v>0.3358417447865237</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1226580782463</v>
+        <v>0.1280667936018339</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1283196157751931</v>
+        <v>0.1427910866277551</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.710406382885399</v>
+        <v>1.721322048978263</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7892993423708481</v>
+        <v>0.8093029146713142</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.11415895167095</v>
+        <v>1.135906249828571</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6925938961697435</v>
+        <v>0.692358543228444</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7197992694257745</v>
+        <v>0.7337235478939006</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4629684820282752</v>
+        <v>0.4792250878543488</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9071525343353978</v>
+        <v>0.9026639591908722</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6403801160613103</v>
+        <v>0.6809017818896521</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6080962743913223</v>
+        <v>0.6001724489765973</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.032557442507244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.459666967293878</v>
+        <v>5.459666967293876</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.771261190977532</v>
@@ -1297,7 +1297,7 @@
         <v>4.050846385806828</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.651345194913058</v>
+        <v>3.651345194913056</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.670900065973306</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6484578075406529</v>
+        <v>0.5272402677968691</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.417578952967635</v>
+        <v>1.205103231814838</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.541147981699907</v>
+        <v>2.40757322655521</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3618439193635562</v>
+        <v>-0.01744934959472684</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9417679162375461</v>
+        <v>-0.4241495414975116</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4587002995669271</v>
+        <v>-0.526907641448086</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.455281816535886</v>
+        <v>1.904126324153172</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.780159531808313</v>
+        <v>1.872734305721678</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.345509664232971</v>
+        <v>2.470221811615646</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.838077202248897</v>
+        <v>7.678822446197947</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.947891612168545</v>
+        <v>8.524602668435396</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.523717771813608</v>
+        <v>8.279856323257782</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.638525558019149</v>
+        <v>9.642149481676556</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.583711694941378</v>
+        <v>9.248699066619254</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.079335948223356</v>
+        <v>7.254353272313678</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.525341773044129</v>
+        <v>7.477216724947894</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.932606863285252</v>
+        <v>7.537824665930485</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.094570437394056</v>
+        <v>7.371957263319144</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.8889751155535129</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9644217932097229</v>
+        <v>0.9644217932097227</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4549805214073638</v>
@@ -1402,7 +1402,7 @@
         <v>0.386282814330255</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3481869623405487</v>
+        <v>0.3481869623405484</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6027466003373293</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06257923298052537</v>
+        <v>0.02457258341426326</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1635470492698599</v>
+        <v>0.1500670433291181</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3381767422941371</v>
+        <v>0.3017097416191535</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03537013245710564</v>
+        <v>-0.003031685721873462</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08565522132868689</v>
+        <v>-0.04523291436502619</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03592171546002598</v>
+        <v>-0.03968260607829892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1519491962638205</v>
+        <v>0.2036821092761035</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.163058184127379</v>
+        <v>0.1903574860416843</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2375397352566973</v>
+        <v>0.2465600509057901</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.814172147738586</v>
+        <v>1.804226087614778</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.100974957620687</v>
+        <v>2.121587212762705</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.103623916123453</v>
+        <v>1.917849502678123</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.146418829983581</v>
+        <v>1.192371543320242</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.067376118560889</v>
+        <v>1.069510514137263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9185356443731486</v>
+        <v>0.9532430218117203</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.202158277202129</v>
+        <v>1.176510438811883</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.222801006211846</v>
+        <v>1.14608727855846</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.119146762024526</v>
+        <v>1.186582221710849</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.533181859532486</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.853356142017187</v>
+        <v>4.853356142017184</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.594545287607351</v>
@@ -1511,7 +1511,7 @@
         <v>3.252789247136342</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.550987103980245</v>
+        <v>4.550987103980248</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.904254237038623</v>
@@ -1520,7 +1520,7 @@
         <v>2.450530543685711</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.760282303039876</v>
+        <v>4.760282303039881</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.548158918509437</v>
+        <v>1.603612009043412</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.005557429120626307</v>
+        <v>0.02114339604181573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.259051314202956</v>
+        <v>3.301565324137671</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.701720400647898</v>
+        <v>2.616176149028758</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.338260577774997</v>
+        <v>1.456872612830261</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.789189233305823</v>
+        <v>2.919228238397886</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.587073167277982</v>
+        <v>2.551961619401502</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.065652520469915</v>
+        <v>1.14045148001627</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.674443037162666</v>
+        <v>3.63583335367325</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.565706056225535</v>
+        <v>4.643821508350578</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.885981270508794</v>
+        <v>3.13084432401573</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.459652785366345</v>
+        <v>6.433267440898963</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.427156418326667</v>
+        <v>6.569439023618645</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.122210320561137</v>
+        <v>5.140138242601384</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.169876895979594</v>
+        <v>6.173233616552003</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.184830058048138</v>
+        <v>5.061072550363839</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.701828538398611</v>
+        <v>3.591401336591939</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.857660721099982</v>
+        <v>5.869811315620341</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1736527480769197</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5497055852945436</v>
+        <v>0.5497055852945433</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2844594078461381</v>
@@ -1616,7 +1616,7 @@
         <v>0.2013880471663693</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.281762615379027</v>
+        <v>0.2817626153790272</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3114062914884736</v>
@@ -1625,7 +1625,7 @@
         <v>0.1954561825275035</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3796837419973563</v>
+        <v>0.3796837419973568</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1616010318454838</v>
+        <v>0.1678683944751531</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.0008306780952782021</v>
+        <v>0.0007035779140425321</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.343850521067094</v>
+        <v>0.3496240309152279</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1593501590851527</v>
+        <v>0.1484117231250719</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07933106236506046</v>
+        <v>0.08223567422095293</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1636182622543852</v>
+        <v>0.1703235743321091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1944716089626765</v>
+        <v>0.1935044095520086</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.08656696870057018</v>
+        <v>0.08300258235357359</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2815367580445569</v>
+        <v>0.2743129687831208</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5675610312747186</v>
+        <v>0.5707220704716599</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3654550769174139</v>
+        <v>0.3819594498150143</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7879603492755722</v>
+        <v>0.7907216590948953</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4162224158860172</v>
+        <v>0.4248434445858093</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3416739529188444</v>
+        <v>0.335958691083535</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4034548518931476</v>
+        <v>0.4092750986874658</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4288032134635844</v>
+        <v>0.4235215983955434</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3149867013544634</v>
+        <v>0.2980919651667487</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4924790478575272</v>
+        <v>0.4900545773874451</v>
       </c>
     </row>
     <row r="34">
